--- a/app/excel/totaal_pool_24.xlsx
+++ b/app/excel/totaal_pool_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rolf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rolf/rails/rails7/soccer_bet/app/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925627D2-FDBA-B446-8C28-1740CDF33F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED3B77-DBC7-B045-91D9-E52264D2A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30940" windowHeight="16780" activeTab="6" xr2:uid="{132A8F33-06C9-9344-9C4A-DEE015995FE8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" firstSheet="16" activeTab="26" xr2:uid="{132A8F33-06C9-9344-9C4A-DEE015995FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Deelnemers" sheetId="40" r:id="rId1"/>
@@ -6649,9 +6649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6689,7 +6689,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6795,7 +6795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6937,7 +6937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -34780,8 +34780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A5E5BA-C464-4B48-9641-B925E0B07410}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36245,6 +36245,9 @@
       <c r="E71" s="49" t="s">
         <v>55</v>
       </c>
+      <c r="H71" s="53" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="50">
@@ -36256,9 +36259,6 @@
       </c>
       <c r="E72" s="49" t="s">
         <v>56</v>
-      </c>
-      <c r="H72" s="53" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -39375,8 +39375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480AA0E-C8F5-4ADD-B177-FD1E055A1FE0}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -65551,7 +65551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087E7B93-3C6D-4B40-84BA-C905DAB0CD04}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
